--- a/Part4Plot.xlsx
+++ b/Part4Plot.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\ECSE 420\HW\HW1\Assignment1_SourceCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{845290E4-359F-4417-B397-E4255F8B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8EB042-96EA-4441-9B28-D7484B0A10F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part4" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,6 +609,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21831233595800525"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1938,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Part4Plot.xlsx
+++ b/Part4Plot.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\ECSE 420\HW\HW1\Assignment1_SourceCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8EB042-96EA-4441-9B28-D7484B0A10F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBB8B49-86A6-4DC7-9F1A-32F79FBA175D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Part4" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,8 +604,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Execution Time (ms) vs. Number of Threads</a:t>
+              <a:t>Execution Time (ms) vs. Number</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -613,7 +618,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21831233595800525"/>
+          <c:x val="0.16718044619422576"/>
           <c:y val="3.2407407407407406E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -681,10 +686,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Part4!$A$2:$A$8</c:f>
+              <c:f>Part4!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -705,36 +710,78 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Part4!$B$2:$B$8</c:f>
+              <c:f>Part4!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>64783</c:v>
+                  <c:v>90476</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50576</c:v>
+                  <c:v>56045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44026</c:v>
+                  <c:v>46953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39411</c:v>
+                  <c:v>43471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37731</c:v>
+                  <c:v>40025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36798</c:v>
+                  <c:v>38558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36487</c:v>
+                  <c:v>38456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37460</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37410</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37562</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -742,7 +789,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7DDF-455A-9F2F-D33BE4B31D50}"/>
+              <c16:uniqueId val="{00000000-3EFC-40BB-941B-75F42BDCC7A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -754,11 +801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1644881408"/>
-        <c:axId val="1644877248"/>
+        <c:axId val="253862271"/>
+        <c:axId val="253863935"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1644881408"/>
+        <c:axId val="253862271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,13 +846,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -875,12 +917,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644877248"/>
+        <c:crossAx val="253863935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1644877248"/>
+        <c:axId val="253863935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1644881408"/>
+        <c:crossAx val="253862271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1629,7 +1671,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF6EA9A-EE0E-48D0-AB5A-B89FA4F17691}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F03B5E-3DE6-4659-A464-518B7F6F70FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,11 +1988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1968,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>64783</v>
+        <v>90476</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1976,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>50576</v>
+        <v>56045</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1984,7 +2026,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>44026</v>
+        <v>46953</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1992,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>39411</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2000,7 +2042,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>37731</v>
+        <v>40025</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2008,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>36798</v>
+        <v>38558</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2016,7 +2058,63 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>36487</v>
+        <v>38456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>38133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>37948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>37982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>37460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>37410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>37562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>37111</v>
       </c>
     </row>
   </sheetData>
